--- a/domain-report.xlsx
+++ b/domain-report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Domain Name</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">facebook.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outlook.com</t>
   </si>
 </sst>
 </file>
@@ -246,10 +243,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -298,16 +295,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="yahoo.com"/>
     <hyperlink ref="A4" r:id="rId2" display="facebook.com"/>
-    <hyperlink ref="A5" r:id="rId3" display="outlook.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
